--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5355E02-D57A-4B0E-8758-5378418AED2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E86D38-2760-4403-A01E-912CB1031675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>https://development1.advantageclub.co/in</t>
+  </si>
+  <si>
+    <t>C1227,C900</t>
   </si>
 </sst>
 </file>
@@ -63,8 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -346,17 +348,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3"/>
+  <dimension ref="B3:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E86D38-2760-4403-A01E-912CB1031675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFDC72-7783-402A-B3C1-583FFAC5C84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>https://development1.advantageclub.co/in</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>C1227,C900</t>
+  </si>
+  <si>
+    <t>https://development1.advantageclub.co/in/rewards/home</t>
+  </si>
+  <si>
+    <t>dheerajc@advantageclub.in</t>
+  </si>
+  <si>
+    <t>Dheeraj@4321</t>
+  </si>
+  <si>
+    <t>adminadvantage</t>
+  </si>
+  <si>
+    <t>@Advantage_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +83,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,28 +371,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D4"/>
+  <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{4039EC2A-70A0-40B3-9037-573F8B4838F8}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{360C336D-1A59-407D-837B-C04ADDD3596D}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{A1C4121A-ACF1-45C9-9E6A-86758C88801E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFDC72-7783-402A-B3C1-583FFAC5C84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573B272E-03DD-4321-AE8B-DF6787912E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,24 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>C1227,C900</t>
   </si>
   <si>
+    <t>dheerajc@advantageclub.in</t>
+  </si>
+  <si>
+    <t>Dheeraj@4321</t>
+  </si>
+  <si>
+    <t>adminadvantage</t>
+  </si>
+  <si>
+    <t>@Advantage_1</t>
+  </si>
+  <si>
     <t>https://development1.advantageclub.co/in/rewards/home</t>
   </si>
   <si>
-    <t>dheerajc@advantageclub.in</t>
-  </si>
-  <si>
-    <t>Dheeraj@4321</t>
-  </si>
-  <si>
-    <t>adminadvantage</t>
-  </si>
-  <si>
-    <t>@Advantage_1</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>BASE URL</t>
+  </si>
+  <si>
+    <t>https://development1.advantageclub.co</t>
   </si>
 </sst>
 </file>
@@ -371,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D16"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,34 +392,45 @@
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -418,6 +438,7 @@
     <hyperlink ref="B11" r:id="rId1" xr:uid="{4039EC2A-70A0-40B3-9037-573F8B4838F8}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{360C336D-1A59-407D-837B-C04ADDD3596D}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{A1C4121A-ACF1-45C9-9E6A-86758C88801E}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{2D0F691B-5838-4CAB-A524-C42F54E4EF45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573B272E-03DD-4321-AE8B-DF6787912E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E531A7-B1A4-45DE-A581-F786C09E587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>C1227,C900</t>
   </si>
@@ -52,13 +52,31 @@
   </si>
   <si>
     <t>https://development1.advantageclub.co</t>
+  </si>
+  <si>
+    <t>Nomination Flow Manual</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>https://secure.advantageclub.co</t>
+  </si>
+  <si>
+    <t>https://secure.advantageclub.co/in/rewards/home</t>
+  </si>
+  <si>
+    <t>https://celio.advantageclub.co/in/pages/rewards_home</t>
+  </si>
+  <si>
+    <t>https://celio.advantageclub.co/login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +88,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,9 +122,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,65 +409,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{4039EC2A-70A0-40B3-9037-573F8B4838F8}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{360C336D-1A59-407D-837B-C04ADDD3596D}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{A1C4121A-ACF1-45C9-9E6A-86758C88801E}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{2D0F691B-5838-4CAB-A524-C42F54E4EF45}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{80495E3E-CF35-4798-A364-FEB3DE50B565}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{B75409F9-6D5A-4B2A-9223-548811321EAD}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{FCE9C487-D855-43A6-A691-863344A3FABE}"/>
+    <hyperlink ref="H5" r:id="rId6" xr:uid="{853FC9BD-5783-4054-9355-A80C3A13AC3F}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{779C7137-3848-4BB2-B3BB-BE7F523CEC65}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{2D0F691B-5838-4CAB-A524-C42F54E4EF45}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{A1C4121A-ACF1-45C9-9E6A-86758C88801E}"/>
+    <hyperlink ref="B3" r:id="rId10" xr:uid="{3C40B0A0-C567-42FE-83B8-9381BB83ED10}"/>
+    <hyperlink ref="B2" r:id="rId11" xr:uid="{DCF38902-78E0-4FA4-8203-091EBEA0DAA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E531A7-B1A4-45DE-A581-F786C09E587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7013A3-B4F1-4932-8B3F-F1CD6F60E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>C1227,C900</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>https://celio.advantageclub.co/login</t>
+  </si>
+  <si>
+    <t>https://codetest.advantageclub.co</t>
+  </si>
+  <si>
+    <t>https://codetest.advantageclub.co/in/rewards/home</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +434,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
@@ -439,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
@@ -498,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -1,93 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7013A3-B4F1-4932-8B3F-F1CD6F60E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>BASE URL</t>
+  </si>
+  <si>
+    <t>https://development1.advantageclub.co</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://development1.advantageclub.co/in/rewards/home</t>
+  </si>
   <si>
     <t>C1227,C900</t>
   </si>
   <si>
+    <t>https://celio.advantageclub.co/login</t>
+  </si>
+  <si>
+    <t>https://celio.advantageclub.co/in/pages/rewards_home</t>
+  </si>
+  <si>
+    <t>https://secure.advantageclub.co</t>
+  </si>
+  <si>
+    <t>https://secure.workadvantage.in/rewards/home</t>
+  </si>
+  <si>
+    <t>https://staging7.advantageclub.co/in/rewards/home</t>
+  </si>
+  <si>
+    <t>https://www.advantageclub.co</t>
+  </si>
+  <si>
+    <t>https://www.advantageclub.co/in/pages/rewards_home</t>
+  </si>
+  <si>
     <t>dheerajc@advantageclub.in</t>
   </si>
   <si>
     <t>Dheeraj@4321</t>
   </si>
   <si>
+    <t>`</t>
+  </si>
+  <si>
     <t>adminadvantage</t>
   </si>
   <si>
     <t>@Advantage_1</t>
   </si>
   <si>
-    <t>https://development1.advantageclub.co/in/rewards/home</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>BASE URL</t>
-  </si>
-  <si>
-    <t>https://development1.advantageclub.co</t>
-  </si>
-  <si>
     <t>Nomination Flow Manual</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>https://secure.advantageclub.co</t>
-  </si>
-  <si>
-    <t>https://secure.advantageclub.co/in/rewards/home</t>
-  </si>
-  <si>
-    <t>https://celio.advantageclub.co/in/pages/rewards_home</t>
-  </si>
-  <si>
-    <t>https://celio.advantageclub.co/login</t>
-  </si>
-  <si>
-    <t>https://codetest.advantageclub.co</t>
-  </si>
-  <si>
-    <t>https://codetest.advantageclub.co/in/rewards/home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,7 +106,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,19 +114,341 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -123,30 +456,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -195,7 +810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,7 +845,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -404,123 +1019,136 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="4" max="4" width="10.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="55.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="21" ht="28.8" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{4039EC2A-70A0-40B3-9037-573F8B4838F8}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{360C336D-1A59-407D-837B-C04ADDD3596D}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{80495E3E-CF35-4798-A364-FEB3DE50B565}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{B75409F9-6D5A-4B2A-9223-548811321EAD}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{FCE9C487-D855-43A6-A691-863344A3FABE}"/>
-    <hyperlink ref="H5" r:id="rId6" xr:uid="{853FC9BD-5783-4054-9355-A80C3A13AC3F}"/>
-    <hyperlink ref="H4" r:id="rId7" xr:uid="{779C7137-3848-4BB2-B3BB-BE7F523CEC65}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{2D0F691B-5838-4CAB-A524-C42F54E4EF45}"/>
-    <hyperlink ref="H7" r:id="rId9" xr:uid="{A1C4121A-ACF1-45C9-9E6A-86758C88801E}"/>
-    <hyperlink ref="B3" r:id="rId10" xr:uid="{3C40B0A0-C567-42FE-83B8-9381BB83ED10}"/>
-    <hyperlink ref="B2" r:id="rId11" xr:uid="{DCF38902-78E0-4FA4-8203-091EBEA0DAA4}"/>
+    <hyperlink ref="B11" r:id="rId1" display="dheerajc@advantageclub.in"/>
+    <hyperlink ref="B12" r:id="rId2" display="Dheeraj@4321"/>
+    <hyperlink ref="B21" r:id="rId3" display="https://development1.advantageclub.co" tooltip="https://development1.advantageclub.co"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://development1.advantageclub.co/in/rewards/home"/>
+    <hyperlink ref="H2" r:id="rId5" display="https://development1.advantageclub.co"/>
+    <hyperlink ref="H5" r:id="rId6" display="https://celio.advantageclub.co/in/pages/rewards_home"/>
+    <hyperlink ref="H4" r:id="rId7" display="https://celio.advantageclub.co/login"/>
+    <hyperlink ref="H6" r:id="rId8" display="https://secure.advantageclub.co"/>
+    <hyperlink ref="H7" r:id="rId9" display="https://secure.workadvantage.in/rewards/home" tooltip="https://secure.workadvantage.in/rewards/home"/>
+    <hyperlink ref="H8" r:id="rId10" display="https://staging7.advantageclub.co/in/rewards/home" tooltip="https://staging7.advantageclub.co/in/rewards/home"/>
+    <hyperlink ref="H9" r:id="rId11" display="https://www.advantageclub.co"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://development1.advantageclub.co"/>
+    <hyperlink ref="B3" r:id="rId5" display="https://development1.advantageclub.co"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -27,60 +27,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>BASE URL</t>
   </si>
   <si>
+    <t>https://development1.advantageclub.co/</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://development1.advantageclub.co/in/rewards/home</t>
+  </si>
+  <si>
+    <t>C1227,C900</t>
+  </si>
+  <si>
+    <t>https://celio.advantageclub.co/login</t>
+  </si>
+  <si>
+    <t>https://celio.advantageclub.co/in/pages/rewards_home</t>
+  </si>
+  <si>
+    <t>https://secure.advantageclub.co/</t>
+  </si>
+  <si>
+    <t>https://secure.workadvantage.in/rewards/home</t>
+  </si>
+  <si>
+    <t>https://staging7.advantageclub.co/in/rewards/home</t>
+  </si>
+  <si>
+    <t>https://www.advantageclub.co/</t>
+  </si>
+  <si>
+    <t>https://www.advantageclub.co/in/pages/rewards_home</t>
+  </si>
+  <si>
+    <t>dheerajc@advantageclub.in</t>
+  </si>
+  <si>
+    <t>Dheeraj@4321</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>adminadvantage</t>
+  </si>
+  <si>
+    <t>@Advantage_1</t>
+  </si>
+  <si>
+    <t>Nomination Flow Manual</t>
+  </si>
+  <si>
     <t>https://development1.advantageclub.co</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://development1.advantageclub.co/in/rewards/home</t>
-  </si>
-  <si>
-    <t>C1227,C900</t>
-  </si>
-  <si>
-    <t>https://celio.advantageclub.co/login</t>
-  </si>
-  <si>
-    <t>https://celio.advantageclub.co/in/pages/rewards_home</t>
-  </si>
-  <si>
-    <t>https://secure.advantageclub.co</t>
-  </si>
-  <si>
-    <t>https://secure.workadvantage.in/rewards/home</t>
-  </si>
-  <si>
-    <t>https://staging7.advantageclub.co/in/rewards/home</t>
-  </si>
-  <si>
-    <t>https://www.advantageclub.co</t>
-  </si>
-  <si>
-    <t>https://www.advantageclub.co/in/pages/rewards_home</t>
-  </si>
-  <si>
-    <t>dheerajc@advantageclub.in</t>
-  </si>
-  <si>
-    <t>Dheeraj@4321</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>adminadvantage</t>
-  </si>
-  <si>
-    <t>@Advantage_1</t>
-  </si>
-  <si>
-    <t>Nomination Flow Manual</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1031,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1055,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -1129,7 +1132,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1138,15 +1141,15 @@
     <hyperlink ref="B12" r:id="rId2" display="Dheeraj@4321"/>
     <hyperlink ref="B21" r:id="rId3" display="https://development1.advantageclub.co" tooltip="https://development1.advantageclub.co"/>
     <hyperlink ref="H3" r:id="rId4" display="https://development1.advantageclub.co/in/rewards/home"/>
-    <hyperlink ref="H2" r:id="rId5" display="https://development1.advantageclub.co"/>
+    <hyperlink ref="H2" r:id="rId5" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
     <hyperlink ref="H5" r:id="rId6" display="https://celio.advantageclub.co/in/pages/rewards_home"/>
     <hyperlink ref="H4" r:id="rId7" display="https://celio.advantageclub.co/login"/>
-    <hyperlink ref="H6" r:id="rId8" display="https://secure.advantageclub.co"/>
+    <hyperlink ref="H6" r:id="rId8" display="https://secure.advantageclub.co/" tooltip="https://secure.advantageclub.co/"/>
     <hyperlink ref="H7" r:id="rId9" display="https://secure.workadvantage.in/rewards/home" tooltip="https://secure.workadvantage.in/rewards/home"/>
     <hyperlink ref="H8" r:id="rId10" display="https://staging7.advantageclub.co/in/rewards/home" tooltip="https://staging7.advantageclub.co/in/rewards/home"/>
-    <hyperlink ref="H9" r:id="rId11" display="https://www.advantageclub.co"/>
-    <hyperlink ref="B2" r:id="rId5" display="https://development1.advantageclub.co"/>
-    <hyperlink ref="B3" r:id="rId5" display="https://development1.advantageclub.co"/>
+    <hyperlink ref="H9" r:id="rId11" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://development1.advantageclub.co/in/rewards/home"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -96,7 +96,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +108,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -576,137 +584,145 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1031,7 +1047,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1049,6 +1065,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1060,6 +1077,7 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="3"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1086,7 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1078,22 +1096,23 @@
       </c>
     </row>
     <row r="6" spans="8:8">
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="8:8">
+    <row r="7" spans="5:8">
+      <c r="E7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="8:8">
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1128,7 +1147,7 @@
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1136,6 +1155,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="dheerajc@advantageclub.in"/>
     <hyperlink ref="B12" r:id="rId2" display="Dheeraj@4321"/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>BASE URL</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>dheerajc@advantageclub.in</t>
+  </si>
+  <si>
+    <t>https://staging7.advantageclub.co/in/login</t>
   </si>
   <si>
     <t>Dheeraj@4321</t>
@@ -1031,7 +1034,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1102,37 +1105,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1150,6 +1156,7 @@
     <hyperlink ref="H9" r:id="rId11" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
     <hyperlink ref="B2" r:id="rId5" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
     <hyperlink ref="B3" r:id="rId4" display="https://development1.advantageclub.co/in/rewards/home"/>
+    <hyperlink ref="H11" r:id="rId12" display="https://staging7.advantageclub.co/in/login" tooltip="https://staging7.advantageclub.co/in/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>BASE URL</t>
   </si>
@@ -50,6 +50,12 @@
     <t>https://celio.advantageclub.co/in/pages/rewards_home</t>
   </si>
   <si>
+    <t>local/lambda</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>https://secure.advantageclub.co/</t>
   </si>
   <si>
@@ -84,9 +90,6 @@
   </si>
   <si>
     <t>Nomination Flow Manual</t>
-  </si>
-  <si>
-    <t>https://development1.advantageclub.co</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1080,83 +1083,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="8:8">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="dheerajc@advantageclub.in"/>
     <hyperlink ref="B12" r:id="rId2" display="Dheeraj@4321"/>
-    <hyperlink ref="B21" r:id="rId3" display="https://development1.advantageclub.co" tooltip="https://development1.advantageclub.co"/>
-    <hyperlink ref="H3" r:id="rId4" display="https://development1.advantageclub.co/in/rewards/home"/>
-    <hyperlink ref="H2" r:id="rId5" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
-    <hyperlink ref="H5" r:id="rId6" display="https://celio.advantageclub.co/in/pages/rewards_home"/>
-    <hyperlink ref="H4" r:id="rId7" display="https://celio.advantageclub.co/login"/>
-    <hyperlink ref="H6" r:id="rId8" display="https://secure.advantageclub.co/" tooltip="https://secure.advantageclub.co/"/>
-    <hyperlink ref="H7" r:id="rId9" display="https://secure.workadvantage.in/rewards/home" tooltip="https://secure.workadvantage.in/rewards/home"/>
-    <hyperlink ref="H8" r:id="rId10" display="https://staging7.advantageclub.co/in/rewards/home" tooltip="https://staging7.advantageclub.co/in/rewards/home"/>
-    <hyperlink ref="H9" r:id="rId11" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
-    <hyperlink ref="B2" r:id="rId5" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://development1.advantageclub.co/in/rewards/home"/>
-    <hyperlink ref="H11" r:id="rId12" display="https://staging7.advantageclub.co/in/login" tooltip="https://staging7.advantageclub.co/in/login"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://development1.advantageclub.co/in/rewards/home"/>
+    <hyperlink ref="H2" r:id="rId4" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://celio.advantageclub.co/in/pages/rewards_home"/>
+    <hyperlink ref="H4" r:id="rId6" display="https://celio.advantageclub.co/login"/>
+    <hyperlink ref="H6" r:id="rId7" display="https://secure.advantageclub.co/" tooltip="https://secure.advantageclub.co/"/>
+    <hyperlink ref="H7" r:id="rId8" display="https://secure.workadvantage.in/rewards/home" tooltip="https://secure.workadvantage.in/rewards/home"/>
+    <hyperlink ref="H8" r:id="rId9" display="https://staging7.advantageclub.co/in/rewards/home" tooltip="https://staging7.advantageclub.co/in/rewards/home"/>
+    <hyperlink ref="H9" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
+    <hyperlink ref="H11" r:id="rId11" display="https://staging7.advantageclub.co/in/login" tooltip="https://staging7.advantageclub.co/in/login"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://development1.advantageclub.co/in/rewards/home"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
+    <hyperlink ref="B21" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -53,7 +53,7 @@
     <t>local/lambda</t>
   </si>
   <si>
-    <t>local</t>
+    <t>lambda</t>
   </si>
   <si>
     <t>https://secure.advantageclub.co/</t>
@@ -1037,7 +1037,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -53,7 +53,7 @@
     <t>local/lambda</t>
   </si>
   <si>
-    <t>lambda</t>
+    <t>local</t>
   </si>
   <si>
     <t>https://secure.advantageclub.co/</t>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +53,7 @@
     <t>local/lambda</t>
   </si>
   <si>
-    <t>local</t>
+    <t>lambda</t>
   </si>
   <si>
     <t>https://secure.advantageclub.co/</t>
@@ -1037,7 +1037,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>BASE URL</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>lambda</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
   <si>
     <t>https://secure.advantageclub.co/</t>
@@ -1037,7 +1040,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1090,64 +1093,67 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -77,7 +77,7 @@
     <t>dheerajc@advantageclub.in</t>
   </si>
   <si>
-    <t>https://staging7.advantageclub.co/in/login</t>
+    <t>https://staging7.advantageclub.co/</t>
   </si>
   <si>
     <t>Dheeraj@4321</t>
@@ -1040,7 +1040,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1168,7 +1168,7 @@
     <hyperlink ref="H7" r:id="rId8" display="https://secure.workadvantage.in/rewards/home" tooltip="https://secure.workadvantage.in/rewards/home"/>
     <hyperlink ref="H8" r:id="rId9" display="https://staging7.advantageclub.co/in/rewards/home" tooltip="https://staging7.advantageclub.co/in/rewards/home"/>
     <hyperlink ref="H9" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
-    <hyperlink ref="H11" r:id="rId11" display="https://staging7.advantageclub.co/in/login" tooltip="https://staging7.advantageclub.co/in/login"/>
+    <hyperlink ref="H11" r:id="rId11" display="https://staging7.advantageclub.co/" tooltip="https://staging7.advantageclub.co/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://development1.advantageclub.co/in/rewards/home"/>
     <hyperlink ref="B2" r:id="rId4" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
     <hyperlink ref="B21" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -32,12 +32,18 @@
     <t>BASE URL</t>
   </si>
   <si>
+    <t>https://www.advantageclub.co/</t>
+  </si>
+  <si>
     <t>https://development1.advantageclub.co/</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
+    <t>https://www.advantageclub.co/in/pages/rewards/home</t>
+  </si>
+  <si>
     <t>https://development1.advantageclub.co/in/rewards/home</t>
   </si>
   <si>
@@ -56,9 +62,6 @@
     <t>lambda</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>https://secure.advantageclub.co/</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t>https://staging7.advantageclub.co/in/rewards/home</t>
-  </si>
-  <si>
-    <t>https://www.advantageclub.co/</t>
   </si>
   <si>
     <t>https://www.advantageclub.co/in/pages/rewards_home</t>
@@ -105,7 +105,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -585,137 +593,138 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1040,7 +1049,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1059,60 +1068,60 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="4:8">
       <c r="D4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="8:8">
-      <c r="H7" s="1" t="s">
-        <v>11</v>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="8:8">
@@ -1149,11 +1158,11 @@
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1162,16 +1171,16 @@
     <hyperlink ref="B12" r:id="rId2" display="Dheeraj@4321"/>
     <hyperlink ref="H3" r:id="rId3" display="https://development1.advantageclub.co/in/rewards/home"/>
     <hyperlink ref="H2" r:id="rId4" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
-    <hyperlink ref="H5" r:id="rId5" display="https://celio.advantageclub.co/in/pages/rewards_home"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://celio.advantageclub.co/in/pages/rewards_home" tooltip="https://celio.advantageclub.co/in/pages/rewards_home"/>
     <hyperlink ref="H4" r:id="rId6" display="https://celio.advantageclub.co/login"/>
     <hyperlink ref="H6" r:id="rId7" display="https://secure.advantageclub.co/" tooltip="https://secure.advantageclub.co/"/>
     <hyperlink ref="H7" r:id="rId8" display="https://secure.workadvantage.in/rewards/home" tooltip="https://secure.workadvantage.in/rewards/home"/>
     <hyperlink ref="H8" r:id="rId9" display="https://staging7.advantageclub.co/in/rewards/home" tooltip="https://staging7.advantageclub.co/in/rewards/home"/>
     <hyperlink ref="H9" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
     <hyperlink ref="H11" r:id="rId11" display="https://staging7.advantageclub.co/" tooltip="https://staging7.advantageclub.co/"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://development1.advantageclub.co/in/rewards/home"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
     <hyperlink ref="B21" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
+    <hyperlink ref="B2" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
+    <hyperlink ref="B3" r:id="rId12" display="https://www.advantageclub.co/in/pages/rewards/home"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -27,51 +27,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>BASE URL</t>
   </si>
   <si>
+    <t>https://development1.advantageclub.co/</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://development1.advantageclub.co/in/rewards/home</t>
+  </si>
+  <si>
+    <t>C1227,C900</t>
+  </si>
+  <si>
+    <t>https://celio.advantageclub.co/login</t>
+  </si>
+  <si>
+    <t>https://celio.advantageclub.co/in/pages/rewards_home</t>
+  </si>
+  <si>
+    <t>local/lambda</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>https://secure.advantageclub.co/</t>
+  </si>
+  <si>
+    <t>https://secure.workadvantage.in/rewards/home</t>
+  </si>
+  <si>
+    <t>https://staging7.advantageclub.co/in/rewards/home</t>
+  </si>
+  <si>
     <t>https://www.advantageclub.co/</t>
   </si>
   <si>
-    <t>https://development1.advantageclub.co/</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>https://www.advantageclub.co/in/pages/rewards/home</t>
-  </si>
-  <si>
-    <t>https://development1.advantageclub.co/in/rewards/home</t>
-  </si>
-  <si>
-    <t>C1227,C900</t>
-  </si>
-  <si>
-    <t>https://celio.advantageclub.co/login</t>
-  </si>
-  <si>
-    <t>https://celio.advantageclub.co/in/pages/rewards_home</t>
-  </si>
-  <si>
-    <t>local/lambda</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>https://secure.advantageclub.co/</t>
-  </si>
-  <si>
-    <t>https://secure.workadvantage.in/rewards/home</t>
-  </si>
-  <si>
-    <t>https://staging7.advantageclub.co/in/rewards/home</t>
-  </si>
-  <si>
-    <t>https://www.advantageclub.co/in/pages/rewards_home</t>
   </si>
   <si>
     <t>dheerajc@advantageclub.in</t>
@@ -1049,7 +1046,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1068,101 +1065,101 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:8">
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" t="s">
-        <v>14</v>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1179,8 +1176,9 @@
     <hyperlink ref="H9" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
     <hyperlink ref="H11" r:id="rId11" display="https://staging7.advantageclub.co/" tooltip="https://staging7.advantageclub.co/"/>
     <hyperlink ref="B21" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
-    <hyperlink ref="B2" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
-    <hyperlink ref="B3" r:id="rId12" display="https://www.advantageclub.co/in/pages/rewards/home"/>
+    <hyperlink ref="H10" r:id="rId12" display="https://www.advantageclub.co/in/pages/rewards/home"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://development1.advantageclub.co/in/rewards/home"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>BASE URL</t>
   </si>
@@ -65,31 +65,40 @@
     <t>https://staging7.advantageclub.co/in/rewards/home</t>
   </si>
   <si>
+    <t>https://www.advantageclub.ai/</t>
+  </si>
+  <si>
+    <t>https://www.advantageclub.ai/in/pages/rewards/home</t>
+  </si>
+  <si>
+    <t>dheerajc@advantageclub.in</t>
+  </si>
+  <si>
+    <t>https://staging7.advantageclub.co/</t>
+  </si>
+  <si>
+    <t>Dheeraj@4321</t>
+  </si>
+  <si>
+    <t>https://development1.advantageclub.co/in/pages/rewards_home</t>
+  </si>
+  <si>
+    <t>https://uatenv.advantageclub.co/</t>
+  </si>
+  <si>
+    <t>https://uatenv.advantageclub.co/in/pages/rewards_home</t>
+  </si>
+  <si>
+    <t>adminadvantage</t>
+  </si>
+  <si>
+    <t>@Advantage_1</t>
+  </si>
+  <si>
+    <t>Nomination Flow Manual</t>
+  </si>
+  <si>
     <t>https://www.advantageclub.co/</t>
-  </si>
-  <si>
-    <t>https://www.advantageclub.co/in/pages/rewards/home</t>
-  </si>
-  <si>
-    <t>dheerajc@advantageclub.in</t>
-  </si>
-  <si>
-    <t>https://staging7.advantageclub.co/</t>
-  </si>
-  <si>
-    <t>Dheeraj@4321</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>adminadvantage</t>
-  </si>
-  <si>
-    <t>@Advantage_1</t>
-  </si>
-  <si>
-    <t>Nomination Flow Manual</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1055,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1130,36 +1139,44 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="8:8">
-      <c r="H13" t="s">
-        <v>17</v>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1173,10 +1190,13 @@
     <hyperlink ref="H6" r:id="rId7" display="https://secure.advantageclub.co/" tooltip="https://secure.advantageclub.co/"/>
     <hyperlink ref="H7" r:id="rId8" display="https://secure.workadvantage.in/rewards/home" tooltip="https://secure.workadvantage.in/rewards/home"/>
     <hyperlink ref="H8" r:id="rId9" display="https://staging7.advantageclub.co/in/rewards/home" tooltip="https://staging7.advantageclub.co/in/rewards/home"/>
-    <hyperlink ref="H9" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
+    <hyperlink ref="H9" r:id="rId10" display="https://www.advantageclub.ai/" tooltip="https://www.advantageclub.ai/"/>
     <hyperlink ref="H11" r:id="rId11" display="https://staging7.advantageclub.co/" tooltip="https://staging7.advantageclub.co/"/>
-    <hyperlink ref="B21" r:id="rId10" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
-    <hyperlink ref="H10" r:id="rId12" display="https://www.advantageclub.co/in/pages/rewards/home"/>
+    <hyperlink ref="B21" r:id="rId12" display="https://www.advantageclub.co/" tooltip="https://www.advantageclub.co/"/>
+    <hyperlink ref="H10" r:id="rId13" display="https://www.advantageclub.ai/in/pages/rewards/home" tooltip="https://www.advantageclub.ai/in/pages/rewards/home"/>
+    <hyperlink ref="H12" r:id="rId14" display="https://development1.advantageclub.co/in/pages/rewards_home" tooltip="https://development1.advantageclub.co/in/pages/rewards_home"/>
+    <hyperlink ref="H13" r:id="rId15" display="https://uatenv.advantageclub.co/" tooltip="https://uatenv.advantageclub.co/"/>
+    <hyperlink ref="H14" r:id="rId16" display="https://uatenv.advantageclub.co/in/pages/rewards_home" tooltip="https://uatenv.advantageclub.co/in/pages/rewards_home"/>
     <hyperlink ref="B3" r:id="rId3" display="https://development1.advantageclub.co/in/rewards/home"/>
     <hyperlink ref="B2" r:id="rId4" display="https://development1.advantageclub.co/" tooltip="https://development1.advantageclub.co/"/>
   </hyperlinks>

--- a/RR/excel/Run_Script.xlsx
+++ b/RR/excel/Run_Script.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
